--- a/DadosAgricolas.xlsx
+++ b/DadosAgricolas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>Produto</t>
   </si>
@@ -46,6 +46,27 @@
     <t xml:space="preserve">  Milho  </t>
   </si>
   <si>
+    <t xml:space="preserve">  R$ 154,46 por saca de 50kg  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R$ 6,4036 por libra-peso  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R$ 62,52 por saca de 50kg  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R$ 3.035,02 por cabeça ou uni.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R$ 318,85 por arroba  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R$ 1.459,85 por saca de 60kg  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R$ 87,18 por saca de 60kg  </t>
+  </si>
+  <si>
     <t xml:space="preserve">  R$ 157,43 por saca de 50kg  </t>
   </si>
   <si>
@@ -65,6 +86,9 @@
   </si>
   <si>
     <t xml:space="preserve">  R$ 87,39 por saca de 60kg  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 DE DEZEMBRO DE 2021 </t>
   </si>
   <si>
     <t xml:space="preserve">16 DE DEZEMBRO DE 2021 </t>
@@ -425,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,7 +474,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -461,7 +485,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -472,7 +496,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -483,7 +507,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -494,7 +518,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -505,7 +529,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -516,7 +540,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -524,10 +548,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -535,10 +559,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -546,10 +570,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -557,10 +581,10 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -568,10 +592,10 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -579,10 +603,10 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -590,241 +614,10 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/DadosAgricolas.xlsx
+++ b/DadosAgricolas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>Produto</t>
   </si>
@@ -46,18 +46,33 @@
     <t xml:space="preserve">  Milho  </t>
   </si>
   <si>
+    <t xml:space="preserve">  R$ 153,03 por saca de 50kg  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R$ 6,4095 por libra-peso  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R$ 62,52 por saca de 50kg  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R$ 3.035,02 por cabeça ou uni.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R$ 317,70 por arroba  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R$ 1.432,67 por saca de 60kg  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R$ 87,57 por saca de 60kg  </t>
+  </si>
+  <si>
     <t xml:space="preserve">  R$ 154,46 por saca de 50kg  </t>
   </si>
   <si>
     <t xml:space="preserve">  R$ 6,4036 por libra-peso  </t>
   </si>
   <si>
-    <t xml:space="preserve">  R$ 62,52 por saca de 50kg  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  R$ 3.035,02 por cabeça ou uni.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">  R$ 318,85 por arroba  </t>
   </si>
   <si>
@@ -67,31 +82,10 @@
     <t xml:space="preserve">  R$ 87,18 por saca de 60kg  </t>
   </si>
   <si>
-    <t xml:space="preserve">  R$ 157,43 por saca de 50kg  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  R$ 6,3914 por libra-peso  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  R$ 62,34 por saca de 50kg  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  R$ 2.968,10 por cabeça ou uni.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  R$ 316,65 por arroba  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  R$ 1.461,28 por saca de 60kg  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  R$ 87,39 por saca de 60kg  </t>
+    <t xml:space="preserve">20 DE DEZEMBRO DE 2021 </t>
   </si>
   <si>
     <t xml:space="preserve">17 DE DEZEMBRO DE 2021 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 DE DEZEMBRO DE 2021 </t>
   </si>
 </sst>
 </file>
@@ -474,7 +468,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -485,7 +479,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -496,7 +490,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -507,7 +501,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -518,7 +512,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -529,7 +523,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -540,7 +534,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -551,7 +545,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -562,7 +556,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -570,10 +564,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -581,10 +575,10 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -592,10 +586,10 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -603,10 +597,10 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -614,10 +608,10 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
         <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/DadosAgricolas.xlsx
+++ b/DadosAgricolas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="40">
   <si>
     <t>Produto</t>
   </si>
@@ -46,6 +46,48 @@
     <t xml:space="preserve">  Milho  </t>
   </si>
   <si>
+    <t xml:space="preserve">  R$ 155,23 por saca de 50kg  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R$ 6,4062 por libra-peso  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R$ 62,54 por saca de 50kg  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R$ 3.004,77 por cabeça ou uni.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R$ 322,40 por arroba  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R$ 1.457,17 por saca de 60kg  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R$ 88,69 por saca de 60kg  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R$ 154,97 por saca de 50kg  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R$ 6,4047 por libra-peso  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R$ 62,56 por saca de 50kg  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R$ 2.986,49 por cabeça ou uni.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R$ 327,75 por arroba  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R$ 1.441,82 por saca de 60kg  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R$ 88,61 por saca de 60kg  </t>
+  </si>
+  <si>
     <t xml:space="preserve">  R$ 153,03 por saca de 50kg  </t>
   </si>
   <si>
@@ -80,6 +122,12 @@
   </si>
   <si>
     <t xml:space="preserve">  R$ 87,18 por saca de 60kg  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 DE DEZEMBRO DE 2021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 DE DEZEMBRO DE 2021 </t>
   </si>
   <si>
     <t xml:space="preserve">20 DE DEZEMBRO DE 2021 </t>
@@ -443,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,7 +516,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -479,7 +527,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -490,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -501,7 +549,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -512,7 +560,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -523,7 +571,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -534,7 +582,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -545,7 +593,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -556,7 +604,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -564,10 +612,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -575,10 +623,10 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -586,10 +634,10 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -597,10 +645,10 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -608,10 +656,164 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/DadosAgricolas.xlsx
+++ b/DadosAgricolas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="48">
   <si>
     <t>Produto</t>
   </si>
@@ -46,6 +46,27 @@
     <t xml:space="preserve">  Milho  </t>
   </si>
   <si>
+    <t xml:space="preserve">  R$ 156,26 por saca de 50kg  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R$ 6,4085 por libra-peso  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R$ 62,49 por saca de 50kg  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R$ 3.011,45 por cabeça ou uni.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R$ 327,50 por arroba  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R$ 1.447,66 por saca de 60kg  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R$ 89,81 por saca de 60kg  </t>
+  </si>
+  <si>
     <t xml:space="preserve">  R$ 155,23 por saca de 50kg  </t>
   </si>
   <si>
@@ -122,6 +143,9 @@
   </si>
   <si>
     <t xml:space="preserve">  R$ 87,18 por saca de 60kg  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 DE DEZEMBRO DE 2021 </t>
   </si>
   <si>
     <t xml:space="preserve">22 DE DEZEMBRO DE 2021 </t>
@@ -491,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,7 +540,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,7 +551,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,7 +562,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -549,7 +573,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,7 +584,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,7 +595,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,7 +606,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,7 +617,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,7 +628,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,7 +639,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,7 +650,7 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,7 +661,7 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,7 +672,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,7 +683,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,7 +694,7 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,7 +705,7 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,7 +716,7 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -703,7 +727,7 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -714,7 +738,7 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -725,7 +749,7 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -736,7 +760,7 @@
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -747,7 +771,7 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -758,7 +782,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -766,10 +790,10 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -777,10 +801,10 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -788,10 +812,10 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -799,10 +823,10 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -810,10 +834,87 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
         <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
